--- a/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
+++ b/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B78" s="65">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
